--- a/EventTimeNormalizer/sample/data.xlsx
+++ b/EventTimeNormalizer/sample/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>host_name</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>2014-04-29 10:00:00.500</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +616,62 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/EventTimeNormalizer/sample/data.xlsx
+++ b/EventTimeNormalizer/sample/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>host_name</t>
   </si>
@@ -51,31 +51,10 @@
     <t>2014-04-29 10:00:01.22</t>
   </si>
   <si>
-    <t>2014-04-29 10:00:01.23</t>
-  </si>
-  <si>
-    <t>2014-04-29 10:00:20</t>
-  </si>
-  <si>
-    <t>2014-04-29 10:00:22</t>
-  </si>
-  <si>
-    <t>2014-04-29 10:00:23</t>
-  </si>
-  <si>
-    <t>2014-04-29 10:00:24</t>
-  </si>
-  <si>
-    <t>2014-04-29 10:00:25</t>
-  </si>
-  <si>
-    <t>2014-04-29 10:00:20.700</t>
-  </si>
-  <si>
     <t>2014-04-29 10:00:00.500</t>
   </si>
   <si>
-    <t>Extra</t>
+    <t>2014-04-29 10:00:05.23</t>
   </si>
 </sst>
 </file>
@@ -419,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +468,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -531,147 +510,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>500</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>125</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
